--- a/XlsxTemplateTests/data/qr.xlsx
+++ b/XlsxTemplateTests/data/qr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\template-go\TemplateGOTests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanglb\work\xlsx-template\XlsxTemplateTests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A367491F-32E3-465B-A2ED-1F36264FA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC60C48A-30BD-439E-967D-581F55CBEFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="2685" windowWidth="13215" windowHeight="10755" xr2:uid="{CB387C7D-C819-4651-B3EA-CDF87735DB02}"/>
+    <workbookView xWindow="1298" yWindow="1335" windowWidth="20565" windowHeight="13800" xr2:uid="{CB387C7D-C819-4651-B3EA-CDF87735DB02}"/>
   </bookViews>
   <sheets>
     <sheet name="图片测试" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>TemplateGO 图片测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -68,6 +64,10 @@
   <si>
     <t>${url|qr:padding= 0.1cm, fw = 2.4cm}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XlsxTemplate 图片测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -162,15 +162,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,9 +256,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +296,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +402,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -558,53 +558,53 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3" ht="78.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="78.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:3" ht="78.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <f t="shared" ref="A4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
